--- a/氣象性能評估工具V2/data/obs/2016-06-22_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-22_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="213">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>24.1</t>
+  </si>
+  <si>
     <t>2016-06-22-00</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
     <t>26.8</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>28.3</t>
   </si>
   <si>
+    <t>23.1</t>
+  </si>
+  <si>
     <t>2016-06-22-01</t>
   </si>
   <si>
-    <t>23.1</t>
-  </si>
-  <si>
     <t>24.5</t>
   </si>
   <si>
@@ -229,12 +229,12 @@
     <t>27.8</t>
   </si>
   <si>
+    <t>22.8</t>
+  </si>
+  <si>
     <t>2016-06-22-03</t>
   </si>
   <si>
-    <t>22.8</t>
-  </si>
-  <si>
     <t>26.0</t>
   </si>
   <si>
@@ -253,12 +253,12 @@
     <t>27.7</t>
   </si>
   <si>
+    <t>22.5</t>
+  </si>
+  <si>
     <t>2016-06-22-04</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>23.9</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>29.8</t>
   </si>
   <si>
+    <t>25.0</t>
+  </si>
+  <si>
     <t>2016-06-22-07</t>
   </si>
   <si>
-    <t>25.0</t>
-  </si>
-  <si>
     <t>30.6</t>
   </si>
   <si>
@@ -370,12 +370,12 @@
     <t>31.3</t>
   </si>
   <si>
+    <t>25.6</t>
+  </si>
+  <si>
     <t>2016-06-22-08</t>
   </si>
   <si>
-    <t>25.6</t>
-  </si>
-  <si>
     <t>32.0</t>
   </si>
   <si>
@@ -541,12 +541,12 @@
     <t>34.4</t>
   </si>
   <si>
+    <t>25.3</t>
+  </si>
+  <si>
     <t>2016-06-22-13</t>
   </si>
   <si>
-    <t>25.3</t>
-  </si>
-  <si>
     <t>36.4</t>
   </si>
   <si>
@@ -571,12 +571,12 @@
     <t>9.5</t>
   </si>
   <si>
+    <t>24.9</t>
+  </si>
+  <si>
     <t>2016-06-22-16</t>
   </si>
   <si>
-    <t>24.9</t>
-  </si>
-  <si>
     <t>34.5</t>
   </si>
   <si>
@@ -637,28 +637,31 @@
     <t>14.3</t>
   </si>
   <si>
+    <t>22.7</t>
+  </si>
+  <si>
     <t>2016-06-22-22</t>
   </si>
   <si>
-    <t>22.7</t>
-  </si>
-  <si>
     <t>14.1</t>
   </si>
   <si>
     <t>7.8</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-22-23</t>
-  </si>
-  <si>
-    <t>22.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -688,8 +691,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,11 +1072,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1145,11 +1149,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1222,11 +1226,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1299,11 +1303,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -1376,11 +1380,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>69</v>
@@ -1453,11 +1457,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -1530,7 +1534,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B8" t="s">
@@ -1607,11 +1611,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
         <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -1684,11 +1688,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>119</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -1761,7 +1765,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B11" t="s">
@@ -1804,7 +1808,7 @@
         <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
         <v>143</v>
@@ -1838,7 +1842,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B12" t="s">
@@ -1915,7 +1919,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B13" t="s">
@@ -1992,7 +1996,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B14" t="s">
@@ -2069,11 +2073,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="s">
         <v>175</v>
-      </c>
-      <c r="B15" t="s">
-        <v>176</v>
       </c>
       <c r="C15" t="s">
         <v>132</v>
@@ -2146,7 +2150,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B16" t="s">
@@ -2223,11 +2227,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>117</v>
@@ -2300,11 +2304,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" t="s">
         <v>185</v>
-      </c>
-      <c r="B18" t="s">
-        <v>186</v>
       </c>
       <c r="C18" t="s">
         <v>110</v>
@@ -2377,7 +2381,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B19" t="s">
@@ -2454,11 +2458,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>108</v>
@@ -2531,11 +2535,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>108</v>
@@ -2608,7 +2612,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B22" t="s">
@@ -2651,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P22" t="s">
         <v>202</v>
@@ -2685,11 +2689,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
@@ -2728,7 +2732,7 @@
         <v>45</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P23" t="s">
         <v>206</v>
@@ -2762,11 +2766,11 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s">
         <v>207</v>
-      </c>
-      <c r="B24" t="s">
-        <v>208</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -2805,7 +2809,7 @@
         <v>62</v>
       </c>
       <c r="O24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P24" t="s">
         <v>209</v>
@@ -2839,11 +2843,11 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" t="s">
         <v>211</v>
-      </c>
-      <c r="B25" t="s">
-        <v>212</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2882,7 +2886,7 @@
         <v>58</v>
       </c>
       <c r="O25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P25" t="s">
         <v>209</v>
